--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/CorrectLink/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
